--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15701222-5781-4C24-B0CF-4AEADA9914A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC53C55-1502-4203-AC53-3805AE82918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Segmento do Cliente</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>QTD</t>
-  </si>
-  <si>
-    <t>MAX SOFT GLAMOUR</t>
   </si>
   <si>
     <t>DISTANCIA D HIDRAULICA A CENTRAL</t>
@@ -203,7 +200,7 @@
     <numFmt numFmtId="169" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="170" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -309,6 +306,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1209,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,513 +1244,522 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="17" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2130,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2194,686 +2212,686 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="145"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="92"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="109" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="111"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="146" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="87" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="89"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="89"/>
+      <c r="V4" s="83"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="92" t="s">
+      <c r="X4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="111"/>
+      <c r="Y4" s="58"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="147" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="115"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="145"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="151"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="148"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="137"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="65"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="156" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="71"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="151"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="11" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="72"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="156"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="13" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="12" t="s">
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="73"/>
+      <c r="Y10" s="140"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="162"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="161"/>
       <c r="Y11" s="163"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="64" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="115"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="137"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106" t="s">
+      <c r="J14" s="108"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="130"/>
-      <c r="N14" s="107" t="s">
+      <c r="M14" s="108"/>
+      <c r="N14" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="119"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="89"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="88"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="122"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="78"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="135" t="s">
+      <c r="B16" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="79"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="118"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="136"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="137"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="65"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="101" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101" t="s">
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="130"/>
+      <c r="O18" s="108"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="101" t="s">
+      <c r="Q18" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="121"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="102" t="s">
+      <c r="R18" s="77"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="138"/>
-      <c r="V18" s="103" t="s">
+      <c r="U18" s="113"/>
+      <c r="V18" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="130"/>
-      <c r="X18" s="103" t="s">
+      <c r="W18" s="108"/>
+      <c r="X18" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="122"/>
+      <c r="Y18" s="78"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="139" t="s">
+      <c r="D19" s="111"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="83" t="s">
+      <c r="G19" s="111"/>
+      <c r="H19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="126"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="83" t="s">
+      <c r="O19" s="110"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="126"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="143"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="129"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="67"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="131"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="33">
+      <c r="B21" s="132">
         <v>1</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33">
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132">
         <v>2</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33">
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="132">
         <v>3</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="33">
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="132">
         <v>4</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="33">
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="132">
         <v>5</v>
       </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="33">
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="132">
         <v>6</v>
       </c>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="35"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="134"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="37"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="137"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2881,1111 +2899,1109 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="38" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="38" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="38" t="s">
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="38" t="s">
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="38" t="s">
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="114"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="115"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="50"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="40" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="40" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="40" t="s">
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="40" t="s">
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="40" t="s">
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="119"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="50"/>
       <c r="Z25" s="1"/>
-      <c r="AB25" s="31"/>
+      <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="166" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="178"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="171"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="166"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="179"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="180"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="179"/>
-      <c r="W27" s="180"/>
-      <c r="X27" s="172"/>
-      <c r="Y27" s="173"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="171"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="171"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="45" t="s">
+      <c r="E28" s="142"/>
+      <c r="F28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
+      <c r="G28" s="14"/>
+      <c r="H28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="45" t="s">
+      <c r="I28" s="142"/>
+      <c r="J28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="28" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="63"/>
-      <c r="N28" s="45" t="s">
+      <c r="M28" s="182"/>
+      <c r="N28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="28" t="s">
+      <c r="O28" s="14"/>
+      <c r="P28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="45" t="s">
+      <c r="Q28" s="142"/>
+      <c r="R28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="28" t="s">
+      <c r="S28" s="14"/>
+      <c r="T28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="46"/>
-      <c r="V28" s="45" t="s">
+      <c r="U28" s="142"/>
+      <c r="V28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="30"/>
-      <c r="X28" s="28" t="s">
+      <c r="W28" s="14"/>
+      <c r="X28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="46"/>
+      <c r="Y28" s="142"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29" t="s">
+      <c r="C29" s="172"/>
+      <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="29" t="s">
+      <c r="E29" s="183"/>
+      <c r="F29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="172"/>
+      <c r="H29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="29" t="s">
+      <c r="I29" s="174"/>
+      <c r="J29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="29" t="s">
+      <c r="K29" s="172"/>
+      <c r="L29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="29" t="s">
+      <c r="M29" s="142"/>
+      <c r="N29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="29" t="s">
+      <c r="O29" s="172"/>
+      <c r="P29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="29" t="s">
+      <c r="Q29" s="174"/>
+      <c r="R29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="29" t="s">
+      <c r="S29" s="172"/>
+      <c r="T29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="48"/>
-      <c r="V29" s="29" t="s">
+      <c r="U29" s="174"/>
+      <c r="V29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W29" s="110"/>
-      <c r="X29" s="29" t="s">
+      <c r="W29" s="175"/>
+      <c r="X29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y29" s="48"/>
+      <c r="Y29" s="174"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="176"/>
+      <c r="D30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47" t="s">
+      <c r="E30" s="173"/>
+      <c r="F30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="29" t="s">
+      <c r="G30" s="172"/>
+      <c r="H30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="47" t="s">
+      <c r="I30" s="174"/>
+      <c r="J30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="29" t="s">
+      <c r="K30" s="172"/>
+      <c r="L30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="47" t="s">
+      <c r="M30" s="174"/>
+      <c r="N30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="29" t="s">
+      <c r="O30" s="172"/>
+      <c r="P30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="47" t="s">
+      <c r="Q30" s="174"/>
+      <c r="R30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="29" t="s">
+      <c r="S30" s="172"/>
+      <c r="T30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="62"/>
-      <c r="V30" s="47" t="s">
+      <c r="U30" s="174"/>
+      <c r="V30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="110"/>
-      <c r="X30" s="29" t="s">
+      <c r="W30" s="175"/>
+      <c r="X30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="62"/>
+      <c r="Y30" s="174"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="40" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="40" t="s">
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="40" t="s">
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="40" t="s">
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="40" t="s">
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="119"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="50"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="42"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="179"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="179"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="44"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="180"/>
+      <c r="Y33" s="181"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="51" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="51" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="51" t="s">
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="51" t="s">
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="119"/>
-      <c r="V34" s="51" t="s">
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="119"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="50"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="119"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="119"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="50"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="119"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="129"/>
-      <c r="T37" s="129"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="129"/>
-      <c r="X37" s="129"/>
-      <c r="Y37" s="119"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="50"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="119"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="129"/>
-      <c r="X38" s="129"/>
-      <c r="Y38" s="119"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="50"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="119"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="118"/>
-      <c r="X39" s="118"/>
-      <c r="Y39" s="119"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="50"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="53" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="53" t="s">
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="53" t="s">
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="53" t="s">
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="53" t="s">
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="111"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="58"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="112">
+      <c r="B41" s="27">
         <v>34</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="113">
+      <c r="D41" s="28">
         <v>12</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="112">
+      <c r="E41" s="17"/>
+      <c r="F41" s="27">
         <v>34</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="113">
+      <c r="H41" s="28">
         <v>12</v>
       </c>
-      <c r="I41" s="54"/>
-      <c r="J41" s="112">
+      <c r="I41" s="17"/>
+      <c r="J41" s="27">
         <v>34</v>
       </c>
       <c r="K41" s="8"/>
-      <c r="L41" s="113">
+      <c r="L41" s="28">
         <v>12</v>
       </c>
-      <c r="M41" s="54"/>
-      <c r="N41" s="112">
+      <c r="M41" s="17"/>
+      <c r="N41" s="27">
         <v>34</v>
       </c>
       <c r="O41" s="8"/>
-      <c r="P41" s="113">
+      <c r="P41" s="28">
         <v>12</v>
       </c>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="112">
+      <c r="Q41" s="17"/>
+      <c r="R41" s="27">
         <v>34</v>
       </c>
       <c r="S41" s="8"/>
-      <c r="T41" s="113">
+      <c r="T41" s="28">
         <v>12</v>
       </c>
-      <c r="U41" s="54"/>
-      <c r="V41" s="112">
+      <c r="U41" s="17"/>
+      <c r="V41" s="27">
         <v>34</v>
       </c>
       <c r="W41" s="8"/>
-      <c r="X41" s="113">
+      <c r="X41" s="28">
         <v>12</v>
       </c>
-      <c r="Y41" s="54"/>
+      <c r="Y41" s="17"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="55" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="55" t="s">
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="55" t="s">
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="55" t="s">
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="55" t="s">
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="115"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="55"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="117" t="s">
+      <c r="D43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="116" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="117" t="s">
+      <c r="H43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="116" t="s">
+      <c r="I43" s="17"/>
+      <c r="J43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="117" t="s">
+      <c r="L43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="54"/>
-      <c r="N43" s="116" t="s">
+      <c r="M43" s="17"/>
+      <c r="N43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="O43" s="9"/>
-      <c r="P43" s="117" t="s">
+      <c r="P43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="116" t="s">
+      <c r="Q43" s="17"/>
+      <c r="R43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="S43" s="9"/>
-      <c r="T43" s="117" t="s">
+      <c r="T43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="54"/>
-      <c r="V43" s="116" t="s">
+      <c r="U43" s="17"/>
+      <c r="V43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="W43" s="9"/>
-      <c r="X43" s="117" t="s">
+      <c r="X43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="54"/>
+      <c r="Y43" s="17"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="56" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="56" t="s">
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="56" t="s">
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="56" t="s">
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="56" t="s">
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="114"/>
-      <c r="X44" s="114"/>
-      <c r="Y44" s="115"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="55"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="116" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="117" t="s">
+      <c r="H45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="116" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="117" t="s">
+      <c r="L45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="54"/>
-      <c r="N45" s="116" t="s">
+      <c r="M45" s="17"/>
+      <c r="N45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="O45" s="9"/>
-      <c r="P45" s="117" t="s">
+      <c r="P45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="116" t="s">
+      <c r="Q45" s="17"/>
+      <c r="R45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="S45" s="9"/>
-      <c r="T45" s="117" t="s">
+      <c r="T45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="54"/>
-      <c r="V45" s="116" t="s">
+      <c r="U45" s="17"/>
+      <c r="V45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="W45" s="9"/>
-      <c r="X45" s="117" t="s">
+      <c r="X45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Y45" s="54"/>
+      <c r="Y45" s="17"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="57" t="s">
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="57" t="s">
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="57" t="s">
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="57" t="s">
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="114"/>
-      <c r="T46" s="114"/>
-      <c r="U46" s="115"/>
-      <c r="V46" s="57" t="s">
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="114"/>
-      <c r="X46" s="114"/>
-      <c r="Y46" s="115"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="55"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="118"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="118"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="59" t="s">
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="118"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="59" t="s">
+      <c r="L47" s="49"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="59" t="s">
+      <c r="P47" s="49"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="118"/>
-      <c r="U47" s="119"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="59" t="s">
+      <c r="T47" s="49"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="118"/>
-      <c r="Y47" s="119"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="50"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="60" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="118"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="60" t="s">
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="118"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="60" t="s">
+      <c r="H48" s="49"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="118"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="60" t="s">
+      <c r="L48" s="49"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="60" t="s">
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="118"/>
-      <c r="U48" s="119"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="60" t="s">
+      <c r="T48" s="49"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="118"/>
-      <c r="Y48" s="119"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="50"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="120" t="s">
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="120" t="s">
+      <c r="G49" s="76"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="120" t="s">
+      <c r="K49" s="76"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="120" t="s">
+      <c r="O49" s="76"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="61"/>
-      <c r="T49" s="121"/>
-      <c r="U49" s="122"/>
-      <c r="V49" s="123" t="s">
+      <c r="S49" s="76"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="20"/>
-      <c r="X49" s="118"/>
-      <c r="Y49" s="119"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="50"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="94" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="94" t="s">
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="125"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="75"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="97" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="126"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="95" t="s">
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="126"/>
-      <c r="L51" s="127"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="97" t="s">
+      <c r="K51" s="110"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="126"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="98"/>
-      <c r="R51" s="95" t="s">
+      <c r="O51" s="110"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="126"/>
-      <c r="T51" s="127"/>
-      <c r="U51" s="96"/>
-      <c r="V51" s="97" t="s">
+      <c r="S51" s="110"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="126"/>
-      <c r="X51" s="127"/>
-      <c r="Y51" s="98"/>
+      <c r="W51" s="110"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="23"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,6 +4080,163 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="V36:Y39"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="B20:Y20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B13:Y13"/>
+    <mergeCell ref="N14:Y15"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="L5:Y6"/>
+    <mergeCell ref="G5:K6"/>
+    <mergeCell ref="B2:F6"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H11:Y11"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="B36:E39"/>
+    <mergeCell ref="F36:I39"/>
+    <mergeCell ref="J36:M39"/>
+    <mergeCell ref="N36:Q39"/>
+    <mergeCell ref="R36:U39"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="N34:Q35"/>
+    <mergeCell ref="R34:U35"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="R26:S27"/>
@@ -4088,163 +4261,6 @@
     <mergeCell ref="H32:I33"/>
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="L26:M27"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="N34:Q35"/>
-    <mergeCell ref="R34:U35"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="B36:E39"/>
-    <mergeCell ref="F36:I39"/>
-    <mergeCell ref="J36:M39"/>
-    <mergeCell ref="N36:Q39"/>
-    <mergeCell ref="R36:U39"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="L5:Y6"/>
-    <mergeCell ref="G5:K6"/>
-    <mergeCell ref="B2:F6"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H11:Y11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="B13:Y13"/>
-    <mergeCell ref="N14:Y15"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="B20:Y20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="V36:Y39"/>
-    <mergeCell ref="V31:Y31"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC53C55-1502-4203-AC53-3805AE82918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F7E216-8DC5-4569-8DFF-62B22AF6E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
   <si>
     <t>Segmento do Cliente</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>DISTANCIA D HIDRAULICA A CENTRAL</t>
+  </si>
+  <si>
+    <t>1X5</t>
+  </si>
+  <si>
+    <t>1X20</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
     <numFmt numFmtId="169" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="170" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -318,6 +324,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1218,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,13 +1321,376 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,387 +1705,66 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1719,48 +1774,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2148,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2212,686 +2226,686 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="94" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="92"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="125"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="95" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="83"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="58"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="131"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="97" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="83"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="57"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="83"/>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="83"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="114" t="s">
         <v>3</v>
       </c>
       <c r="V4" s="83"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="84" t="s">
+      <c r="X4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="58"/>
+      <c r="Y4" s="131"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="88" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="145"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="117"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="148"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="120"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="65"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="92"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="69" t="s">
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="151"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="167"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="138" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="156"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="57"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="141" t="s">
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="139" t="s">
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="140"/>
+      <c r="Y10" s="50"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="163"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="151"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="89"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="98"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="102" t="s">
+      <c r="Q12" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="55"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="63"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="65"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="92"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="108"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="116" t="s">
+      <c r="I14" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="108"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="116" t="s">
+      <c r="L14" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="108"/>
-      <c r="N14" s="103" t="s">
+      <c r="M14" s="80"/>
+      <c r="N14" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="83"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="90" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="78"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="85"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="128" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="118"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="112"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="65"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="92"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="107" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="108"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="107" t="s">
+      <c r="N18" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="108"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="107" t="s">
+      <c r="Q18" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="77"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="112" t="s">
+      <c r="R18" s="79"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="113"/>
-      <c r="V18" s="123" t="s">
+      <c r="U18" s="106"/>
+      <c r="V18" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="108"/>
-      <c r="X18" s="123" t="s">
+      <c r="W18" s="80"/>
+      <c r="X18" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="78"/>
+      <c r="Y18" s="85"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="125" t="s">
+      <c r="F19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="109" t="s">
+      <c r="G19" s="75"/>
+      <c r="H19" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="110"/>
+      <c r="O19" s="74"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="109" t="s">
+      <c r="Q19" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="110"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="115"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="129"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="96"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="131"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="66"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="132">
+      <c r="B21" s="67">
         <v>1</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="132">
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="67">
         <v>2</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="132">
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="67">
         <v>3</v>
       </c>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="132">
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="67">
         <v>4</v>
       </c>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="132">
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="67">
         <v>5</v>
       </c>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="132">
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="67">
         <v>6</v>
       </c>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="134"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="69"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="137"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="72"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2899,167 +2913,167 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="124" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="124" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="124" t="s">
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="124" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="124" t="s">
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="60"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="52" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="52" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="52" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="52" t="s">
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="52" t="s">
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="50"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
       <c r="Z25" s="1"/>
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="166"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="161"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="162"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="171"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="164"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3071,7 +3085,7 @@
       <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="142"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3079,7 +3093,7 @@
       <c r="H28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="142"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3101,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="182"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3095,7 +3109,7 @@
       <c r="P28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="142"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3103,7 +3117,7 @@
       <c r="T28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="142"/>
+      <c r="U28" s="33"/>
       <c r="V28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3111,7 +3125,7 @@
       <c r="X28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="142"/>
+      <c r="Y28" s="33"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,51 +3133,51 @@
       <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="172"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="183"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="172"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="174"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="172"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="142"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="172"/>
+      <c r="O29" s="34"/>
       <c r="P29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="174"/>
+      <c r="Q29" s="36"/>
       <c r="R29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="172"/>
+      <c r="S29" s="34"/>
       <c r="T29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="174"/>
+      <c r="U29" s="36"/>
       <c r="V29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W29" s="175"/>
+      <c r="W29" s="37"/>
       <c r="X29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y29" s="174"/>
+      <c r="Y29" s="36"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,370 +3185,370 @@
       <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="176"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="173"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="172"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="174"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="172"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="174"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="172"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="174"/>
+      <c r="Q30" s="36"/>
       <c r="R30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="172"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="174"/>
+      <c r="U30" s="36"/>
       <c r="V30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="175"/>
+      <c r="W30" s="37"/>
       <c r="X30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="174"/>
+      <c r="Y30" s="36"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="52" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="52" t="s">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52" t="s">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="52" t="s">
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="52" t="s">
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="178"/>
-      <c r="Q32" s="179"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="179"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="178"/>
-      <c r="Y32" s="179"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="178"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="180"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="180"/>
-      <c r="Y33" s="181"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="176"/>
+      <c r="P33" s="179"/>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="179"/>
+      <c r="U33" s="180"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="176"/>
+      <c r="X33" s="179"/>
+      <c r="Y33" s="180"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="48" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="48" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="48" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="48" t="s">
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="48" t="s">
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="50"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="43"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="50"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="43"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="50"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="43"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="50"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="43"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="50"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="43"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="56" t="s">
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="56" t="s">
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="56" t="s">
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="56" t="s">
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="56" t="s">
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="131"/>
+      <c r="V40" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="58"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="131"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="27">
         <v>34</v>
@@ -3586,47 +3600,47 @@
       <c r="Y41" s="17"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="53" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="53" t="s">
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="53" t="s">
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="53" t="s">
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="53" t="s">
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="55"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="63"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="29" t="s">
         <v>42</v>
@@ -3678,216 +3692,217 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="62" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="62" t="s">
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="62" t="s">
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="62" t="s">
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="62" t="s">
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="55"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="63"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="29" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="29" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="29" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="29" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="17"/>
       <c r="R45" s="29" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="29" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="W45" s="9"/>
       <c r="X45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="Y45" s="17"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="61" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="61" t="s">
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="61" t="s">
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="61" t="s">
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="61" t="s">
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="55"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="63"/>
       <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB46" s="184"/>
+    </row>
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="81" t="s">
+      <c r="K47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="50"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="81" t="s">
+      <c r="O47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="50"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="43"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="81" t="s">
+      <c r="S47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="49"/>
-      <c r="U47" s="50"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="43"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="81" t="s">
+      <c r="W47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="50"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="43"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="80" t="s">
+      <c r="G48" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="80" t="s">
+      <c r="K48" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="49"/>
-      <c r="M48" s="50"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="80" t="s">
+      <c r="O48" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="50"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="43"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="80" t="s">
+      <c r="S48" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="49"/>
-      <c r="U48" s="50"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="43"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="80" t="s">
+      <c r="W48" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="50"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="43"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3895,112 +3910,112 @@
       <c r="B49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="76"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="85"/>
       <c r="J49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="76"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="78"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="85"/>
       <c r="N49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="76"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="78"/>
+      <c r="O49" s="144"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="85"/>
       <c r="R49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="76"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="78"/>
+      <c r="S49" s="144"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="85"/>
       <c r="V49" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="79"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="50"/>
+      <c r="W49" s="145"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="43"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="74" t="s">
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="74" t="s">
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="143"/>
+      <c r="R50" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="75"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="135"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+      <c r="Y50" s="143"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="120" t="s">
+      <c r="F51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="75"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="119" t="s">
+      <c r="J51" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="110"/>
-      <c r="L51" s="111"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="75"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="120" t="s">
+      <c r="N51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="110"/>
-      <c r="P51" s="111"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="75"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="119" t="s">
+      <c r="R51" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="110"/>
-      <c r="T51" s="111"/>
+      <c r="S51" s="74"/>
+      <c r="T51" s="75"/>
       <c r="U51" s="22"/>
-      <c r="V51" s="120" t="s">
+      <c r="V51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="110"/>
-      <c r="X51" s="111"/>
+      <c r="W51" s="74"/>
+      <c r="X51" s="75"/>
       <c r="Y51" s="23"/>
       <c r="Z51" s="1"/>
     </row>
@@ -4080,42 +4095,127 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="V36:Y39"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="B20:Y20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="T26:U27"/>
+    <mergeCell ref="V26:W27"/>
+    <mergeCell ref="X26:Y27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="P32:Q33"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:U33"/>
+    <mergeCell ref="V32:W33"/>
+    <mergeCell ref="X32:Y33"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="N34:Q35"/>
+    <mergeCell ref="R34:U35"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="B36:E39"/>
+    <mergeCell ref="F36:I39"/>
+    <mergeCell ref="J36:M39"/>
+    <mergeCell ref="N36:Q39"/>
+    <mergeCell ref="R36:U39"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H11:Y11"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="L5:Y6"/>
+    <mergeCell ref="G5:K6"/>
+    <mergeCell ref="B2:F6"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B13:Y13"/>
+    <mergeCell ref="N14:Y15"/>
     <mergeCell ref="V22:Y22"/>
     <mergeCell ref="R22:U22"/>
     <mergeCell ref="N22:Q22"/>
@@ -4140,127 +4240,42 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="B13:Y13"/>
-    <mergeCell ref="N14:Y15"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="L5:Y6"/>
-    <mergeCell ref="G5:K6"/>
-    <mergeCell ref="B2:F6"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H11:Y11"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="B36:E39"/>
-    <mergeCell ref="F36:I39"/>
-    <mergeCell ref="J36:M39"/>
-    <mergeCell ref="N36:Q39"/>
-    <mergeCell ref="R36:U39"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="N34:Q35"/>
-    <mergeCell ref="R34:U35"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="T26:U27"/>
-    <mergeCell ref="V26:W27"/>
-    <mergeCell ref="X26:Y27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="P32:Q33"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:U33"/>
-    <mergeCell ref="V32:W33"/>
-    <mergeCell ref="X32:Y33"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="V36:Y39"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="B20:Y20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F7E216-8DC5-4569-8DFF-62B22AF6E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC53C55-1502-4203-AC53-3805AE82918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Segmento do Cliente</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>DISTANCIA D HIDRAULICA A CENTRAL</t>
-  </si>
-  <si>
-    <t>1X5</t>
-  </si>
-  <si>
-    <t>1X20</t>
   </si>
 </sst>
 </file>
@@ -206,7 +200,7 @@
     <numFmt numFmtId="169" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="170" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -324,13 +318,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1231,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1321,49 +1308,319 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,193 +1635,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,53 +1656,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1642,28 +1674,19 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1678,32 +1701,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1711,48 +1710,39 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,16 +1755,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2162,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB46" sqref="AB46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2226,686 +2212,686 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="125"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="92"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="129" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="83"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="131"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="132" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="83"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="82"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="83"/>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="83"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="114" t="s">
+      <c r="U4" s="84" t="s">
         <v>3</v>
       </c>
       <c r="V4" s="83"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="114" t="s">
+      <c r="X4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="131"/>
+      <c r="Y4" s="58"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="121" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="117"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="145"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="120"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="148"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="92"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="65"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="167"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="151"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="48" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="57"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="156"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="51" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="49" t="s">
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="50"/>
+      <c r="Y10" s="140"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="151"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="163"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="97" t="s">
+      <c r="I12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="98"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="89"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="97" t="s">
+      <c r="Q12" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="63"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="92"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="80"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="80"/>
-      <c r="N14" s="99" t="s">
+      <c r="M14" s="108"/>
+      <c r="N14" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="83"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="117" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="85"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="78"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="94" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="112"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="118"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="92"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="65"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="93" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="108"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="93" t="s">
+      <c r="N18" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="80"/>
+      <c r="O18" s="108"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="93" t="s">
+      <c r="Q18" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="79"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="105" t="s">
+      <c r="R18" s="77"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="106"/>
-      <c r="V18" s="84" t="s">
+      <c r="U18" s="113"/>
+      <c r="V18" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="80"/>
-      <c r="X18" s="84" t="s">
+      <c r="W18" s="108"/>
+      <c r="X18" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="78"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="77" t="s">
+      <c r="G19" s="111"/>
+      <c r="H19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="77" t="s">
+      <c r="N19" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="74"/>
+      <c r="O19" s="110"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="77" t="s">
+      <c r="Q19" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="74"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="96"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="129"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="66"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="131"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="67">
+      <c r="B21" s="132">
         <v>1</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67">
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132">
         <v>2</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="67">
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="132">
         <v>3</v>
       </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="67">
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="132">
         <v>4</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="67">
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="132">
         <v>5</v>
       </c>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="67">
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="132">
         <v>6</v>
       </c>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="69"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="134"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="72"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="137"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2913,167 +2899,167 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="61" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="61" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="61" t="s">
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="61" t="s">
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="61" t="s">
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="63"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="47" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="47" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="47" t="s">
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="47" t="s">
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="47" t="s">
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="43"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="50"/>
       <c r="Z25" s="1"/>
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="157"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="162"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="166"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="164"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="164"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="164"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="171"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="171"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3071,7 @@
       <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3093,7 +3079,7 @@
       <c r="H28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="142"/>
       <c r="J28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3101,7 +3087,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="39"/>
+      <c r="M28" s="182"/>
       <c r="N28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3109,7 +3095,7 @@
       <c r="P28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="33"/>
+      <c r="Q28" s="142"/>
       <c r="R28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3117,7 +3103,7 @@
       <c r="T28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="33"/>
+      <c r="U28" s="142"/>
       <c r="V28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3125,7 +3111,7 @@
       <c r="X28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="33"/>
+      <c r="Y28" s="142"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,51 +3119,51 @@
       <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="183"/>
       <c r="F29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="172"/>
       <c r="H29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="36"/>
+      <c r="I29" s="174"/>
       <c r="J29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="172"/>
       <c r="L29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="33"/>
+      <c r="M29" s="142"/>
       <c r="N29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="34"/>
+      <c r="O29" s="172"/>
       <c r="P29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="36"/>
+      <c r="Q29" s="174"/>
       <c r="R29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="34"/>
+      <c r="S29" s="172"/>
       <c r="T29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="36"/>
+      <c r="U29" s="174"/>
       <c r="V29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W29" s="37"/>
+      <c r="W29" s="175"/>
       <c r="X29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y29" s="36"/>
+      <c r="Y29" s="174"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,370 +3171,370 @@
       <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="173"/>
       <c r="F30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="172"/>
       <c r="H30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="36"/>
+      <c r="I30" s="174"/>
       <c r="J30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="172"/>
       <c r="L30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="36"/>
+      <c r="M30" s="174"/>
       <c r="N30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="172"/>
       <c r="P30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="36"/>
+      <c r="Q30" s="174"/>
       <c r="R30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="34"/>
+      <c r="S30" s="172"/>
       <c r="T30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="36"/>
+      <c r="U30" s="174"/>
       <c r="V30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="37"/>
+      <c r="W30" s="175"/>
       <c r="X30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="36"/>
+      <c r="Y30" s="174"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="47" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="47" t="s">
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="47" t="s">
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="47" t="s">
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="47" t="s">
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="50"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="178"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="179"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="179"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="179"/>
-      <c r="U33" s="180"/>
-      <c r="V33" s="175"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="180"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="180"/>
+      <c r="Y33" s="181"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="155" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="155" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="155" t="s">
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="155" t="s">
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="155" t="s">
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="43"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="50"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="43"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="50"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="43"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="43"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="50"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="43"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="50"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="43"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="50"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="156" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="156" t="s">
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="156" t="s">
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="156" t="s">
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="156" t="s">
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="131"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="58"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="27">
         <v>34</v>
@@ -3600,47 +3586,47 @@
       <c r="Y41" s="17"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="154" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="154" t="s">
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="154" t="s">
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="154" t="s">
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="154" t="s">
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="63"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="55"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="29" t="s">
         <v>42</v>
@@ -3692,217 +3678,216 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="153" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="153" t="s">
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="153" t="s">
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="153" t="s">
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="153" t="s">
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="63"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="55"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="29" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="29" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="29" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="29" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="Q45" s="17"/>
       <c r="R45" s="29" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="29" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="W45" s="9"/>
       <c r="X45" s="30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="Y45" s="17"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="152" t="s">
+      <c r="B46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="152" t="s">
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="152" t="s">
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="152" t="s">
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="152" t="s">
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="152" t="s">
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="63"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="55"/>
       <c r="Z46" s="1"/>
-      <c r="AB46" s="184"/>
-    </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="41" t="s">
+      <c r="K47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="43"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="50"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="41" t="s">
+      <c r="O47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="43"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="50"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="41" t="s">
+      <c r="S47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="42"/>
-      <c r="U47" s="43"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="50"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="41" t="s">
+      <c r="W47" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="43"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="50"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="146" t="s">
+      <c r="G48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="50"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="146" t="s">
+      <c r="K48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="50"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="146" t="s">
+      <c r="O48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="43"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="146" t="s">
+      <c r="S48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="42"/>
-      <c r="U48" s="43"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="50"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="146" t="s">
+      <c r="W48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="43"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="50"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3910,112 +3895,112 @@
       <c r="B49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="144"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="85"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78"/>
       <c r="F49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="144"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="85"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="144"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="85"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="78"/>
       <c r="N49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="144"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="85"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="78"/>
       <c r="R49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="144"/>
-      <c r="T49" s="79"/>
-      <c r="U49" s="85"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="78"/>
       <c r="V49" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="145"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="43"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="50"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="142" t="s">
+      <c r="B50" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="142" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
-      <c r="N50" s="135"/>
-      <c r="O50" s="135"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="143"/>
-      <c r="R50" s="142" t="s">
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="135"/>
-      <c r="T50" s="135"/>
-      <c r="U50" s="135"/>
-      <c r="V50" s="135"/>
-      <c r="W50" s="135"/>
-      <c r="X50" s="135"/>
-      <c r="Y50" s="143"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="75"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="76" t="s">
+      <c r="F51" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="75"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="73" t="s">
+      <c r="J51" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="74"/>
-      <c r="L51" s="75"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="111"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="74"/>
-      <c r="P51" s="75"/>
+      <c r="O51" s="110"/>
+      <c r="P51" s="111"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="73" t="s">
+      <c r="R51" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="74"/>
-      <c r="T51" s="75"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="111"/>
       <c r="U51" s="22"/>
-      <c r="V51" s="76" t="s">
+      <c r="V51" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="74"/>
-      <c r="X51" s="75"/>
+      <c r="W51" s="110"/>
+      <c r="X51" s="111"/>
       <c r="Y51" s="23"/>
       <c r="Z51" s="1"/>
     </row>
@@ -4095,6 +4080,163 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="V36:Y39"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="B20:Y20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B13:Y13"/>
+    <mergeCell ref="N14:Y15"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="L5:Y6"/>
+    <mergeCell ref="G5:K6"/>
+    <mergeCell ref="B2:F6"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H11:Y11"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="B36:E39"/>
+    <mergeCell ref="F36:I39"/>
+    <mergeCell ref="J36:M39"/>
+    <mergeCell ref="N36:Q39"/>
+    <mergeCell ref="R36:U39"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="N34:Q35"/>
+    <mergeCell ref="R34:U35"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="R26:S27"/>
@@ -4119,163 +4261,6 @@
     <mergeCell ref="H32:I33"/>
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="L26:M27"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="N34:Q35"/>
-    <mergeCell ref="R34:U35"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="B36:E39"/>
-    <mergeCell ref="F36:I39"/>
-    <mergeCell ref="J36:M39"/>
-    <mergeCell ref="N36:Q39"/>
-    <mergeCell ref="R36:U39"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H11:Y11"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="L5:Y6"/>
-    <mergeCell ref="G5:K6"/>
-    <mergeCell ref="B2:F6"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="B13:Y13"/>
-    <mergeCell ref="N14:Y15"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="V36:Y39"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="B20:Y20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC53C55-1502-4203-AC53-3805AE82918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79527E67-31AC-4468-867E-143D59E7E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="57">
   <si>
     <t>Segmento do Cliente</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>DISTANCIA D HIDRAULICA A CENTRAL</t>
+  </si>
+  <si>
+    <t>FLUXOSTATO</t>
+  </si>
+  <si>
+    <t>PRESSURIZADOR</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
     <numFmt numFmtId="169" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="170" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -318,6 +324,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1218,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,6 +1319,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,17 +1376,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,6 +1408,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1416,6 +1493,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,6 +1541,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,31 +1571,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,24 +1628,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1551,6 +1655,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1563,7 +1670,46 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,9 +1718,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1593,35 +1736,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1635,131 +1751,41 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2148,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2212,686 +2238,690 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="94" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="92"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="128"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="95" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="58"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="80"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="97" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="82" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="83"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="115"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="83"/>
+      <c r="V4" s="115"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="84" t="s">
+      <c r="X4" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="58"/>
+      <c r="Y4" s="80"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="88" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="145"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="119"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="148"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="122"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="65"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="87"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="69" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="151"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="138" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="156"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="182"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="141" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="139" t="s">
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="140"/>
+      <c r="Y10" s="175"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="163"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="113"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="89"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="124"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="102" t="s">
+      <c r="Q12" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="55"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="65"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="87"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="108"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="116" t="s">
+      <c r="I14" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="108"/>
+      <c r="J14" s="139"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="116" t="s">
+      <c r="L14" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="108"/>
-      <c r="N14" s="103" t="s">
+      <c r="M14" s="102"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="156" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="83"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="83"/>
+      <c r="J15" s="115"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="78"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="128" t="s">
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="118"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="152"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="65"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="87"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="107" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="108"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="139"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="107" t="s">
+      <c r="N18" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="108"/>
+      <c r="O18" s="139"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="107" t="s">
+      <c r="Q18" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="77"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="112" t="s">
+      <c r="R18" s="102"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="113"/>
-      <c r="V18" s="123" t="s">
+      <c r="U18" s="144"/>
+      <c r="V18" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="108"/>
-      <c r="X18" s="123" t="s">
+      <c r="W18" s="139"/>
+      <c r="X18" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="78"/>
+      <c r="Y18" s="103"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="125" t="s">
+      <c r="F19" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="109" t="s">
+      <c r="G19" s="142"/>
+      <c r="H19" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="110"/>
+      <c r="O19" s="141"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="109" t="s">
+      <c r="Q19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="110"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="115"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="129"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="146"/>
+      <c r="Y19" s="159"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="131"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="184"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="132">
+      <c r="B21" s="185">
         <v>1</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="132">
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="185">
         <v>2</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="132">
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="185">
         <v>3</v>
       </c>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="132">
+      <c r="K21" s="186"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="185">
         <v>4</v>
       </c>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="132">
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="185">
         <v>5</v>
       </c>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="132">
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="185">
         <v>6</v>
       </c>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="134"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="187"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="137"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="163"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2899,167 +2929,167 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="124" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="124" t="s">
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="124" t="s">
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="124" t="s">
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="124" t="s">
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="77"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
+      <c r="Y24" s="172"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="52" t="s">
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="52" t="s">
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="52" t="s">
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="52" t="s">
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="52" t="s">
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="50"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="72"/>
       <c r="Z25" s="1"/>
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="166"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="53"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="171"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3071,7 +3101,7 @@
       <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="142"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3079,7 +3109,7 @@
       <c r="H28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="142"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3117,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="182"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3095,7 +3125,7 @@
       <c r="P28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="142"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3103,7 +3133,7 @@
       <c r="T28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="142"/>
+      <c r="U28" s="33"/>
       <c r="V28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3111,7 +3141,7 @@
       <c r="X28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="142"/>
+      <c r="Y28" s="33"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,51 +3149,51 @@
       <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="172"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="183"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="172"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="174"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="172"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="142"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="172"/>
+      <c r="O29" s="34"/>
       <c r="P29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="174"/>
+      <c r="Q29" s="36"/>
       <c r="R29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="172"/>
+      <c r="S29" s="34"/>
       <c r="T29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="174"/>
+      <c r="U29" s="36"/>
       <c r="V29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W29" s="175"/>
+      <c r="W29" s="37"/>
       <c r="X29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y29" s="174"/>
+      <c r="Y29" s="36"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,367 +3201,367 @@
       <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="176"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="173"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="172"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="174"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="172"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="174"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="172"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="174"/>
+      <c r="Q30" s="36"/>
       <c r="R30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="172"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="174"/>
+      <c r="U30" s="36"/>
       <c r="V30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="175"/>
+      <c r="W30" s="37"/>
       <c r="X30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="174"/>
+      <c r="Y30" s="36"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="52" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="52" t="s">
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52" t="s">
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="52" t="s">
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="52" t="s">
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="72"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="178"/>
-      <c r="Q32" s="179"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="179"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="178"/>
-      <c r="Y32" s="179"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="64"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="180"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="180"/>
-      <c r="Y33" s="181"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="66"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="48" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="48" t="s">
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="48" t="s">
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="48" t="s">
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="48" t="s">
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="72"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="50"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="72"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="50"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="72"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="50"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="72"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="50"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="72"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="50"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="72"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="56" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="56" t="s">
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="56" t="s">
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="56" t="s">
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="56" t="s">
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="58"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="80"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3588,42 +3618,42 @@
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="53" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="53" t="s">
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="53" t="s">
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="53" t="s">
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="53" t="s">
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="55"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="77"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,42 +3710,42 @@
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="62" t="s">
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="62" t="s">
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="62" t="s">
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="62" t="s">
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="62" t="s">
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="55"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="77"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,122 +3802,122 @@
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="61" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="61" t="s">
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="61" t="s">
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="61" t="s">
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="61" t="s">
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="55"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="77"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="81" t="s">
+      <c r="K47" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="50"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="72"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="81" t="s">
+      <c r="O47" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="50"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="72"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="81" t="s">
+      <c r="S47" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="49"/>
-      <c r="U47" s="50"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="72"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="81" t="s">
+      <c r="W47" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="50"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="72"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="80" t="s">
+      <c r="G48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="80" t="s">
+      <c r="K48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="49"/>
-      <c r="M48" s="50"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="72"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="80" t="s">
+      <c r="O48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="50"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="72"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="80" t="s">
+      <c r="S48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="49"/>
-      <c r="U48" s="50"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="72"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="80" t="s">
+      <c r="W48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="50"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="72"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3895,112 +3925,112 @@
       <c r="B49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="103"/>
       <c r="F49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="76"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="103"/>
       <c r="J49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="76"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="78"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="103"/>
       <c r="N49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="76"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="78"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="103"/>
       <c r="R49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="76"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="78"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="103"/>
       <c r="V49" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="79"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="50"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="72"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="74" t="s">
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="74" t="s">
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="75"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="100"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="142"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="120" t="s">
+      <c r="F51" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="142"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="119" t="s">
+      <c r="J51" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="110"/>
-      <c r="L51" s="111"/>
+      <c r="K51" s="141"/>
+      <c r="L51" s="142"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="120" t="s">
+      <c r="N51" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="110"/>
-      <c r="P51" s="111"/>
+      <c r="O51" s="141"/>
+      <c r="P51" s="142"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="119" t="s">
+      <c r="R51" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="110"/>
-      <c r="T51" s="111"/>
+      <c r="S51" s="141"/>
+      <c r="T51" s="142"/>
       <c r="U51" s="22"/>
-      <c r="V51" s="120" t="s">
+      <c r="V51" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="110"/>
-      <c r="X51" s="111"/>
+      <c r="W51" s="141"/>
+      <c r="X51" s="142"/>
       <c r="Y51" s="23"/>
       <c r="Z51" s="1"/>
     </row>
@@ -4079,7 +4109,7 @@
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="181">
+  <mergeCells count="183">
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="O47:Q47"/>
     <mergeCell ref="S47:U47"/>
@@ -4093,6 +4123,17 @@
     <mergeCell ref="H9:Q9"/>
     <mergeCell ref="H10:P10"/>
     <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="B20:Y20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:M25"/>
@@ -4105,17 +4146,6 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="B20:Y20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="V22:Y22"/>
     <mergeCell ref="R22:U22"/>
     <mergeCell ref="N22:Q22"/>
@@ -4140,15 +4170,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="B13:Y13"/>
-    <mergeCell ref="N14:Y15"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="Q18:S18"/>
@@ -4160,6 +4181,17 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S14:Y15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B13:Y13"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="L5:Y6"/>

--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79527E67-31AC-4468-867E-143D59E7E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950106DB-B9E9-41C7-90B3-424F7ED54291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -197,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="&quot;DILUIDOR - &quot;00"/>
     <numFmt numFmtId="166" formatCode="&quot;DOSADOR - &quot;00"/>
@@ -205,6 +216,7 @@
     <numFmt numFmtId="168" formatCode="0&quot;/&quot;0"/>
     <numFmt numFmtId="169" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="170" formatCode="h:mm;@"/>
+    <numFmt numFmtId="171" formatCode="&quot;1:&quot;0"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -392,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1216,6 +1228,32 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1229,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1346,22 +1384,364 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1388,37 +1768,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,362 +1795,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2174,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2238,690 +2258,690 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
       <c r="F2" s="128"/>
       <c r="G2" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
       <c r="Y2" s="128"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="115"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="133"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="80"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="134"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="134" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="114" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="115"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="115"/>
+      <c r="V4" s="85"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="116" t="s">
+      <c r="X4" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="80"/>
+      <c r="Y4" s="134"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="123" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="119"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="121"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="129"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="130"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="122"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="124"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="87"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="111"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94" t="s">
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="44"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="172"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="173" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="182"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="59"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="176" t="s">
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="174" t="s">
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="175"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="113"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="156"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="124"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="116"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="160" t="s">
+      <c r="Q12" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="77"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="87"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="111"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="139"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="148" t="s">
+      <c r="I14" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="139"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="148" t="s">
+      <c r="L14" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="102"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="41"/>
-      <c r="O14" s="156" t="s">
+      <c r="O14" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="154" t="s">
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="115"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="115"/>
+      <c r="J15" s="85"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="149" t="s">
+      <c r="L15" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="79"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="153" t="s">
+      <c r="M15" s="84"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="158" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="141"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="150"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="152"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="87"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="111"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="138" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="139"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="138" t="s">
+      <c r="N18" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="139"/>
+      <c r="O18" s="82"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="138" t="s">
+      <c r="Q18" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="102"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="143" t="s">
+      <c r="R18" s="81"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="144"/>
-      <c r="V18" s="167" t="s">
+      <c r="U18" s="99"/>
+      <c r="V18" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="139"/>
-      <c r="X18" s="167" t="s">
+      <c r="W18" s="82"/>
+      <c r="X18" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="103"/>
+      <c r="Y18" s="87"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="142"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="169" t="s">
+      <c r="F19" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="140" t="s">
+      <c r="G19" s="77"/>
+      <c r="H19" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="142"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="77"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="140" t="s">
+      <c r="N19" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="141"/>
+      <c r="O19" s="76"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="140" t="s">
+      <c r="Q19" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="141"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="146"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="146"/>
-      <c r="Y19" s="159"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="114"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="184"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="185">
+      <c r="B21" s="66">
         <v>1</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="185">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="66">
         <v>2</v>
       </c>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="185">
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="66">
         <v>3</v>
       </c>
-      <c r="K21" s="186"/>
-      <c r="L21" s="186"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="185">
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="66">
         <v>4</v>
       </c>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="187"/>
-      <c r="R21" s="185">
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="66">
         <v>5</v>
       </c>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="185">
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="66">
         <v>6</v>
       </c>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="187"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="68"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="163"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="71"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2929,167 +2949,167 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="168" t="s">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="168" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="168" t="s">
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="168" t="s">
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="168" t="s">
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="77"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="62"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="172"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="74"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="74" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="74" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="74" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="74" t="s">
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="74" t="s">
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="72"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="45"/>
       <c r="Z25" s="1"/>
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="53"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="166"/>
+      <c r="Y26" s="167"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="55"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="169"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="169"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,318 +3270,354 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="74" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="74" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="74" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="74" t="s">
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="74" t="s">
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="72"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="45"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="64"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="180"/>
+      <c r="T32" s="179"/>
+      <c r="U32" s="180"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="180"/>
+      <c r="X32" s="179"/>
+      <c r="Y32" s="180"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="66"/>
+      <c r="B33" s="181" t="e">
+        <f>1000/B32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="182"/>
+      <c r="D33" s="181" t="e">
+        <f t="shared" ref="D33" si="0">1000/D32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="182"/>
+      <c r="F33" s="181" t="e">
+        <f t="shared" ref="F33" si="1">1000/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="182"/>
+      <c r="H33" s="181" t="e">
+        <f t="shared" ref="H33" si="2">1000/H32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="182"/>
+      <c r="J33" s="181" t="e">
+        <f t="shared" ref="J33" si="3">1000/J32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="182"/>
+      <c r="L33" s="181" t="e">
+        <f t="shared" ref="L33" si="4">1000/L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="182"/>
+      <c r="N33" s="181" t="e">
+        <f t="shared" ref="N33" si="5">1000/N32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="182"/>
+      <c r="P33" s="181" t="e">
+        <f t="shared" ref="P33" si="6">1000/P32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="181" t="e">
+        <f t="shared" ref="R33" si="7">1000/R32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="182"/>
+      <c r="T33" s="181" t="e">
+        <f t="shared" ref="T33" si="8">1000/T32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="182"/>
+      <c r="V33" s="181" t="e">
+        <f t="shared" ref="V33" si="9">1000/V32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" s="182"/>
+      <c r="X33" s="181" t="e">
+        <f t="shared" ref="X33" si="10">1000/X32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" s="182"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="70" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="70" t="s">
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="70" t="s">
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="70" t="s">
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="70" t="s">
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="72"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="45"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="72"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="45"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="72"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="45"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="72"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="45"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="72"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="45"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="72"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="45"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="78" t="s">
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="78" t="s">
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="78" t="s">
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="78" t="s">
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="78" t="s">
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="80"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="134"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3618,42 +3674,42 @@
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="75" t="s">
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="75" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="75" t="s">
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="75" t="s">
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="75" t="s">
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="77"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="62"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3710,42 +3766,42 @@
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="84" t="s">
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="84" t="s">
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="84" t="s">
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="84" t="s">
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="84" t="s">
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="77"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="62"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3802,122 +3858,122 @@
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="83" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="83" t="s">
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="83" t="s">
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="83" t="s">
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="77"/>
-      <c r="V46" s="83" t="s">
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="76"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="77"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="62"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="106" t="s">
+      <c r="G47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="106" t="s">
+      <c r="K47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="72"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="106" t="s">
+      <c r="O47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="72"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="45"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="106" t="s">
+      <c r="S47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="45"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="106" t="s">
+      <c r="W47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="72"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="45"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="105" t="s">
+      <c r="C48" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="105" t="s">
+      <c r="G48" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="72"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="105" t="s">
+      <c r="K48" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="72"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="105" t="s">
+      <c r="O48" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="72"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="45"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="105" t="s">
+      <c r="S48" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="45"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="105" t="s">
+      <c r="W48" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="72"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="45"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3925,112 +3981,112 @@
       <c r="B49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="101"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="87"/>
       <c r="J49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="103"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="87"/>
       <c r="N49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="101"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="103"/>
+      <c r="O49" s="147"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="87"/>
       <c r="R49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="101"/>
-      <c r="T49" s="102"/>
-      <c r="U49" s="103"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="87"/>
       <c r="V49" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="104"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="72"/>
+      <c r="W49" s="148"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="45"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="99" t="s">
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="99" t="s">
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="146"/>
+      <c r="R50" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="89"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="100"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="138"/>
+      <c r="V50" s="138"/>
+      <c r="W50" s="138"/>
+      <c r="X50" s="138"/>
+      <c r="Y50" s="146"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="164" t="s">
+      <c r="B51" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="141"/>
-      <c r="D51" s="142"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="165" t="s">
+      <c r="F51" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="141"/>
-      <c r="H51" s="142"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="164" t="s">
+      <c r="J51" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="141"/>
-      <c r="L51" s="142"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="77"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="165" t="s">
+      <c r="N51" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="141"/>
-      <c r="P51" s="142"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="77"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="164" t="s">
+      <c r="R51" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="141"/>
-      <c r="T51" s="142"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="77"/>
       <c r="U51" s="22"/>
-      <c r="V51" s="165" t="s">
+      <c r="V51" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="141"/>
-      <c r="X51" s="142"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="77"/>
       <c r="Y51" s="23"/>
       <c r="Z51" s="1"/>
     </row>
@@ -4109,7 +4165,178 @@
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="183">
+  <mergeCells count="195">
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="T26:U27"/>
+    <mergeCell ref="V26:W27"/>
+    <mergeCell ref="X26:Y27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="N34:Q35"/>
+    <mergeCell ref="R34:U35"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="B36:E39"/>
+    <mergeCell ref="F36:I39"/>
+    <mergeCell ref="J36:M39"/>
+    <mergeCell ref="N36:Q39"/>
+    <mergeCell ref="R36:U39"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H11:Y11"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="L5:Y6"/>
+    <mergeCell ref="G5:K6"/>
+    <mergeCell ref="B2:F6"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S14:Y15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B13:Y13"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="O47:Q47"/>
     <mergeCell ref="S47:U47"/>
@@ -4134,165 +4361,6 @@
     <mergeCell ref="R21:U21"/>
     <mergeCell ref="V21:Y21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S14:Y15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="B13:Y13"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="L5:Y6"/>
-    <mergeCell ref="G5:K6"/>
-    <mergeCell ref="B2:F6"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H11:Y11"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="B36:E39"/>
-    <mergeCell ref="F36:I39"/>
-    <mergeCell ref="J36:M39"/>
-    <mergeCell ref="N36:Q39"/>
-    <mergeCell ref="R36:U39"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="N34:Q35"/>
-    <mergeCell ref="R34:U35"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="T26:U27"/>
-    <mergeCell ref="V26:W27"/>
-    <mergeCell ref="X26:Y27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="P32:Q33"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:U33"/>
-    <mergeCell ref="V32:W33"/>
-    <mergeCell ref="X32:Y33"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="L26:M27"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950106DB-B9E9-41C7-90B3-424F7ED54291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08779FA0-28DA-4322-97E9-16BF5A49B2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="&quot;DILUIDOR - &quot;00"/>
     <numFmt numFmtId="166" formatCode="&quot;DOSADOR - &quot;00"/>
@@ -217,6 +217,7 @@
     <numFmt numFmtId="169" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="170" formatCode="h:mm;@"/>
     <numFmt numFmtId="171" formatCode="&quot;1:&quot;0"/>
+    <numFmt numFmtId="172" formatCode="0&quot;ml/L&quot;"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -227,44 +228,53 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -305,6 +315,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1225,19 +1236,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1267,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,9 +1352,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,6 +1382,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1474,6 +1493,9 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,6 +1505,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1522,9 +1562,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1537,19 +1613,247 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,250 +1865,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2194,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2258,399 +2328,399 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="131" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="128"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="131"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="132" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="134"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="137"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="135" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="117" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="85"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="118" t="s">
+      <c r="U4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="85"/>
+      <c r="V4" s="99"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="118" t="s">
+      <c r="X4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="134"/>
+      <c r="Y4" s="137"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="125" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="121"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="123"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="124"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="126"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="111"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="88"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="172"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="183"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="50" t="s">
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="59"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="66"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="53" t="s">
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="51" t="s">
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="52"/>
+      <c r="Y10" s="59"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="156"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="161"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="116"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="86"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="115" t="s">
+      <c r="Q12" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="69"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="111"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="88"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="91" t="s">
+      <c r="I14" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="82"/>
+      <c r="J14" s="96"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="91" t="s">
+      <c r="L14" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="109" t="s">
         <v>56</v>
       </c>
@@ -2670,31 +2740,31 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="85"/>
+      <c r="J15" s="99"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="73" t="s">
+      <c r="M15" s="98"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
       <c r="S15" s="108"/>
       <c r="T15" s="108"/>
       <c r="U15" s="108"/>
@@ -2706,28 +2776,28 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="112" t="s">
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="76"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
       <c r="T16" s="104"/>
       <c r="U16" s="105"/>
       <c r="V16" s="105"/>
@@ -2738,210 +2808,210 @@
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="111"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="88"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="97" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="97" t="s">
+      <c r="N18" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="82"/>
+      <c r="O18" s="96"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="97" t="s">
+      <c r="Q18" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="81"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="98" t="s">
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="99"/>
-      <c r="V18" s="86" t="s">
+      <c r="U18" s="201"/>
+      <c r="V18" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="82"/>
-      <c r="X18" s="86" t="s">
+      <c r="W18" s="96"/>
+      <c r="X18" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="87"/>
+      <c r="Y18" s="101"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="79" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="77"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="79" t="s">
+      <c r="N19" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="76"/>
+      <c r="O19" s="90"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="79" t="s">
+      <c r="Q19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="76"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="102"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="202"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="203"/>
+      <c r="X19" s="113"/>
       <c r="Y19" s="114"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="65"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="72"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="66">
+      <c r="B21" s="73">
         <v>1</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="66">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="74">
         <v>2</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="66">
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="73">
         <v>3</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="66">
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="73">
         <v>4</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="66">
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="73">
         <v>5</v>
       </c>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="66">
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="73">
         <v>6</v>
       </c>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="68"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="75"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="71"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="78"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2949,167 +3019,167 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="60" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="60" t="s">
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="60" t="s">
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="60" t="s">
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="60" t="s">
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="62"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="69"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="74"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="82"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="49" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="49" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="49" t="s">
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="49" t="s">
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="49" t="s">
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="45"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="52"/>
       <c r="Z25" s="1"/>
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="167"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="167"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="191"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="192"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="169"/>
-      <c r="V27" s="164"/>
-      <c r="W27" s="165"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="169"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="189"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="193"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="189"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="189"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="194"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,15 +3191,15 @@
       <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="45" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3137,7 +3207,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="39"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3145,7 +3215,7 @@
       <c r="P28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="33"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3153,7 +3223,7 @@
       <c r="T28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="33"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="15" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3231,7 @@
       <c r="X28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="33"/>
+      <c r="Y28" s="32"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,51 +3239,51 @@
       <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I29" s="36"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="12" t="s">
+      <c r="M29" s="32"/>
+      <c r="N29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="34"/>
+      <c r="O29" s="33"/>
       <c r="P29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="12" t="s">
+      <c r="Q29" s="35"/>
+      <c r="R29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="34"/>
+      <c r="S29" s="33"/>
       <c r="T29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="36"/>
-      <c r="V29" s="12" t="s">
+      <c r="U29" s="35"/>
+      <c r="V29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="W29" s="37"/>
+      <c r="W29" s="36"/>
       <c r="X29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y29" s="36"/>
+      <c r="Y29" s="35"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3221,15 +3291,15 @@
       <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="16" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="12" t="s">
         <v>51</v>
       </c>
@@ -3237,387 +3307,387 @@
       <c r="J30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="36"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="36"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="34"/>
+      <c r="S30" s="33"/>
       <c r="T30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="36"/>
+      <c r="U30" s="35"/>
       <c r="V30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="37"/>
+      <c r="W30" s="36"/>
       <c r="X30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="36"/>
+      <c r="Y30" s="35"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="49" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="49" t="s">
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="49" t="s">
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="49" t="s">
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="49" t="s">
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="52"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="179"/>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="179"/>
-      <c r="S32" s="180"/>
-      <c r="T32" s="179"/>
-      <c r="U32" s="180"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="180"/>
-      <c r="X32" s="179"/>
-      <c r="Y32" s="180"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="204"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="181" t="e">
-        <f>1000/B32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="182"/>
-      <c r="D33" s="181" t="e">
-        <f t="shared" ref="D33" si="0">1000/D32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="182"/>
-      <c r="F33" s="181" t="e">
-        <f t="shared" ref="F33" si="1">1000/F32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="182"/>
-      <c r="H33" s="181" t="e">
-        <f t="shared" ref="H33" si="2">1000/H32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="182"/>
-      <c r="J33" s="181" t="e">
-        <f t="shared" ref="J33" si="3">1000/J32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="182"/>
-      <c r="L33" s="181" t="e">
-        <f t="shared" ref="L33" si="4">1000/L32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="182"/>
-      <c r="N33" s="181" t="e">
-        <f t="shared" ref="N33" si="5">1000/N32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="182"/>
-      <c r="P33" s="181" t="e">
-        <f t="shared" ref="P33" si="6">1000/P32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="181" t="e">
-        <f t="shared" ref="R33" si="7">1000/R32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="182"/>
-      <c r="T33" s="181" t="e">
-        <f t="shared" ref="T33" si="8">1000/T32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="182"/>
-      <c r="V33" s="181" t="e">
-        <f t="shared" ref="V33" si="9">1000/V32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="182"/>
-      <c r="X33" s="181" t="e">
-        <f t="shared" ref="X33" si="10">1000/X32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y33" s="182"/>
+      <c r="B33" s="176" t="str">
+        <f>IF(ISERROR(1000/B32), "", 1000/B32)</f>
+        <v/>
+      </c>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177" t="str">
+        <f t="shared" ref="D33" si="0">IF(ISERROR(1000/D32), "", 1000/D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179" t="str">
+        <f t="shared" ref="F33" si="1">IF(ISERROR(1000/F32), "", 1000/F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177" t="str">
+        <f t="shared" ref="H33" si="2">IF(ISERROR(1000/H32), "", 1000/H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="180"/>
+      <c r="J33" s="176" t="str">
+        <f t="shared" ref="J33" si="3">IF(ISERROR(1000/J32), "", 1000/J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177" t="str">
+        <f t="shared" ref="L33" si="4">IF(ISERROR(1000/L32), "", 1000/L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="178"/>
+      <c r="N33" s="176" t="str">
+        <f t="shared" ref="N33" si="5">IF(ISERROR(1000/N32), "", 1000/N32)</f>
+        <v/>
+      </c>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177" t="str">
+        <f t="shared" ref="P33" si="6">IF(ISERROR(1000/P32), "", 1000/P32)</f>
+        <v/>
+      </c>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="176" t="str">
+        <f t="shared" ref="R33" si="7">IF(ISERROR(1000/R32), "", 1000/R32)</f>
+        <v/>
+      </c>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177" t="str">
+        <f t="shared" ref="T33" si="8">IF(ISERROR(1000/T32), "", 1000/T32)</f>
+        <v/>
+      </c>
+      <c r="U33" s="178"/>
+      <c r="V33" s="176" t="str">
+        <f t="shared" ref="V33" si="9">IF(ISERROR(1000/V32), "", 1000/V32)</f>
+        <v/>
+      </c>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177" t="str">
+        <f t="shared" ref="X33" si="10">IF(ISERROR(1000/X32), "", 1000/X32)</f>
+        <v/>
+      </c>
+      <c r="Y33" s="178"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="160" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="160" t="s">
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="160" t="s">
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="160" t="s">
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="160" t="s">
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="45"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="52"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="45"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="52"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="45"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="52"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="45"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="52"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="45"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="52"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="45"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="52"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="161" t="s">
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="161" t="s">
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="161" t="s">
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="161" t="s">
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="84"/>
-      <c r="T40" s="84"/>
-      <c r="U40" s="134"/>
-      <c r="V40" s="161" t="s">
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="84"/>
-      <c r="X40" s="84"/>
-      <c r="Y40" s="134"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="137"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,14 +3700,14 @@
         <v>12</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="27">
+      <c r="F41" s="28">
         <v>34</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="28">
         <v>12</v>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="27">
         <v>34</v>
       </c>
@@ -3653,7 +3723,7 @@
       <c r="P41" s="28">
         <v>12</v>
       </c>
-      <c r="Q41" s="17"/>
+      <c r="Q41" s="42"/>
       <c r="R41" s="27">
         <v>34</v>
       </c>
@@ -3674,42 +3744,42 @@
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="159" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="159" t="s">
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="159" t="s">
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="159" t="s">
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="159" t="s">
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="62"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="69"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,14 +3792,14 @@
         <v>43</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="47" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="42"/>
       <c r="J43" s="29" t="s">
         <v>42</v>
       </c>
@@ -3745,7 +3815,7 @@
       <c r="P43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q43" s="17"/>
+      <c r="Q43" s="42"/>
       <c r="R43" s="29" t="s">
         <v>42</v>
       </c>
@@ -3766,42 +3836,42 @@
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="158" t="s">
+      <c r="B44" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="158" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="158" t="s">
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="158" t="s">
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="158" t="s">
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="158" t="s">
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="62"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="69"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,14 +3884,14 @@
         <v>23</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="17"/>
+      <c r="I45" s="42"/>
       <c r="J45" s="29" t="s">
         <v>22</v>
       </c>
@@ -3837,7 +3907,7 @@
       <c r="P45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="17"/>
+      <c r="Q45" s="42"/>
       <c r="R45" s="29" t="s">
         <v>22</v>
       </c>
@@ -3858,235 +3928,235 @@
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="157" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="157" t="s">
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="157" t="s">
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="157" t="s">
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="157" t="s">
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="62"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="69"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="43" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="43" t="s">
+      <c r="O47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="45"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="43" t="s">
+      <c r="S47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="44"/>
-      <c r="U47" s="45"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="52"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="43" t="s">
+      <c r="W47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="45"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="52"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="149" t="s">
+      <c r="C48" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="149" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="45"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="149" t="s">
+      <c r="K48" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="52"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="149" t="s">
+      <c r="O48" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="45"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="149" t="s">
+      <c r="S48" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="44"/>
-      <c r="U48" s="45"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="52"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="149" t="s">
+      <c r="W48" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="45"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="52"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="31" t="s">
+      <c r="C49" s="152"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="147"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="31" t="s">
+      <c r="G49" s="153"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="147"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="87"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="133"/>
       <c r="N49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="147"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="31" t="s">
+      <c r="O49" s="153"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="147"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="87"/>
-      <c r="V49" s="32" t="s">
+      <c r="S49" s="152"/>
+      <c r="T49" s="112"/>
+      <c r="U49" s="133"/>
+      <c r="V49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="148"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="45"/>
+      <c r="W49" s="152"/>
+      <c r="X49" s="112"/>
+      <c r="Y49" s="133"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="145" t="s">
+      <c r="B50" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="145" t="s">
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="146"/>
-      <c r="R50" s="145" t="s">
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
+      <c r="O50" s="141"/>
+      <c r="P50" s="141"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="138"/>
-      <c r="W50" s="138"/>
-      <c r="X50" s="138"/>
-      <c r="Y50" s="146"/>
+      <c r="S50" s="141"/>
+      <c r="T50" s="141"/>
+      <c r="U50" s="141"/>
+      <c r="V50" s="141"/>
+      <c r="W50" s="141"/>
+      <c r="X50" s="141"/>
+      <c r="Y50" s="151"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="76"/>
-      <c r="H51" s="77"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="91"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="75" t="s">
+      <c r="J51" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="76"/>
-      <c r="L51" s="77"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="91"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="78" t="s">
+      <c r="N51" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="76"/>
-      <c r="P51" s="77"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="91"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="75" t="s">
+      <c r="R51" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="76"/>
-      <c r="T51" s="77"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="91"/>
       <c r="U51" s="22"/>
-      <c r="V51" s="78" t="s">
+      <c r="V51" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="76"/>
-      <c r="X51" s="77"/>
+      <c r="W51" s="90"/>
+      <c r="X51" s="91"/>
       <c r="Y51" s="23"/>
       <c r="Z51" s="1"/>
     </row>
@@ -4193,11 +4263,16 @@
     <mergeCell ref="L26:M27"/>
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="N34:Q35"/>
-    <mergeCell ref="R34:U35"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:M31"/>
@@ -4232,6 +4307,11 @@
     <mergeCell ref="J36:M39"/>
     <mergeCell ref="N36:Q39"/>
     <mergeCell ref="R36:U39"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="N34:Q35"/>
+    <mergeCell ref="R34:U35"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="J46:M46"/>
@@ -4279,16 +4359,6 @@
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="T16:Y16"/>
     <mergeCell ref="O15:R15"/>
     <mergeCell ref="S14:Y15"/>
@@ -4298,6 +4368,9 @@
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="L16:S16"/>
     <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I12:O12"/>
     <mergeCell ref="Q12:Y12"/>
     <mergeCell ref="B13:Y13"/>
@@ -4322,9 +4395,6 @@
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:M25"/>

--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08779FA0-28DA-4322-97E9-16BF5A49B2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF58C3-FD5C-40AC-B0D7-12D1BBA7ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
   <si>
     <t>Segmento do Cliente</t>
   </si>
@@ -198,10 +198,13 @@
     <t>DISTANCIA D HIDRAULICA A CENTRAL</t>
   </si>
   <si>
-    <t>FLUXOSTATO</t>
-  </si>
-  <si>
-    <t>PRESSURIZADOR</t>
+    <t>EMAIL PARA COMODATO:</t>
+  </si>
+  <si>
+    <t>PRESSO</t>
+  </si>
+  <si>
+    <t>FLUXO</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
     <numFmt numFmtId="171" formatCode="&quot;1:&quot;0"/>
     <numFmt numFmtId="172" formatCode="0&quot;ml/L&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -352,8 +355,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +423,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="72">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1258,6 +1273,78 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1265,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,9 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1376,12 +1460,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,14 +1661,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1619,30 +1691,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,11 +1718,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1865,6 +1946,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1876,6 +1960,37 @@
     </xf>
     <xf numFmtId="172" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2264,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2328,690 +2443,690 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="134" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="131"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="118"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="137"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="124"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="138" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="119" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="99"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="120" t="s">
+      <c r="U4" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="99"/>
+      <c r="V4" s="96"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="137"/>
+      <c r="Y4" s="124"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="127" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="123"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="128"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="126"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="137"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="88"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="85"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="146" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="183"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="179"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="180"/>
+      <c r="W8" s="180"/>
+      <c r="X8" s="180"/>
+      <c r="Y8" s="181"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="57" t="s">
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="66"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="63"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="60" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="58" t="s">
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="59"/>
+      <c r="Y10" s="56"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="161"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="159"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="199" t="s">
+      <c r="B12" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="85" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="85" t="s">
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="69"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="66"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="88"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="85"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="117" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="117" t="s">
+      <c r="J14" s="93"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="107" t="s">
+      <c r="M14" s="48"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="206"/>
+      <c r="P14" s="206"/>
+      <c r="Q14" s="206"/>
+      <c r="R14" s="207"/>
+      <c r="S14" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="118" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="98"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="108"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="216" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="216"/>
+      <c r="N15" s="216"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="209" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="211"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="111" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="90"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="106"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="88"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="85"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="110" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="110" t="s">
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="110" t="s">
+      <c r="O18" s="93"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="200" t="s">
+      <c r="R18" s="92"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="201"/>
-      <c r="V18" s="100" t="s">
+      <c r="U18" s="199"/>
+      <c r="V18" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="96"/>
-      <c r="X18" s="100" t="s">
+      <c r="W18" s="93"/>
+      <c r="X18" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="101"/>
+      <c r="Y18" s="98"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="93" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="103" t="s">
+      <c r="D19" s="88"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="93" t="s">
+      <c r="G19" s="88"/>
+      <c r="H19" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="93" t="s">
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="90"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="93" t="s">
+      <c r="O19" s="87"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="90"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="202"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="203"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="114"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="200"/>
+      <c r="U19" s="201"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="202"/>
+      <c r="X19" s="108"/>
+      <c r="Y19" s="109"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="69"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="73">
+      <c r="B21" s="70">
         <v>1</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="74">
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="71">
         <v>2</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="73">
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="70">
         <v>3</v>
       </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="73">
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="70">
         <v>4</v>
       </c>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="73">
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="70">
         <v>5</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="73">
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="70">
         <v>6</v>
       </c>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="75"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="72"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="78"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="75"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -3019,1145 +3134,1145 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="102" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="67" t="s">
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="67" t="s">
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="67" t="s">
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="69"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="66"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="82"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="79"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="79" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="56" t="s">
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="56" t="s">
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="56" t="s">
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="56" t="s">
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="52"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
       <c r="Z25" s="1"/>
-      <c r="AB25" s="13"/>
+      <c r="AB25" s="12"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="192"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="188"/>
-      <c r="T26" s="191"/>
-      <c r="U26" s="192"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="192"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="189"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="189"/>
+      <c r="Y26" s="190"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="194"/>
-      <c r="N27" s="189"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="189"/>
-      <c r="S27" s="190"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="194"/>
-      <c r="V27" s="189"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="194"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="192"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="191"/>
+      <c r="U27" s="192"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="188"/>
+      <c r="X27" s="191"/>
+      <c r="Y27" s="192"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="45" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="13"/>
+      <c r="H28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="15" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="11" t="s">
+      <c r="K28" s="13"/>
+      <c r="L28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="15" t="s">
+      <c r="M28" s="37"/>
+      <c r="N28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="11" t="s">
+      <c r="O28" s="13"/>
+      <c r="P28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="15" t="s">
+      <c r="Q28" s="31"/>
+      <c r="R28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="11" t="s">
+      <c r="S28" s="13"/>
+      <c r="T28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="15" t="s">
+      <c r="U28" s="31"/>
+      <c r="V28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="14"/>
-      <c r="X28" s="11" t="s">
+      <c r="W28" s="13"/>
+      <c r="X28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="32"/>
+      <c r="Y28" s="31"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="46" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="32"/>
+      <c r="H29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="16" t="s">
+      <c r="I29" s="35"/>
+      <c r="J29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="12" t="s">
+      <c r="K29" s="32"/>
+      <c r="L29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="31"/>
+      <c r="N29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="12" t="s">
+      <c r="O29" s="32"/>
+      <c r="P29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="16" t="s">
+      <c r="Q29" s="34"/>
+      <c r="R29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="12" t="s">
+      <c r="S29" s="32"/>
+      <c r="T29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="35"/>
-      <c r="V29" s="16" t="s">
+      <c r="U29" s="34"/>
+      <c r="V29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="12" t="s">
+      <c r="W29" s="35"/>
+      <c r="X29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y29" s="35"/>
+      <c r="Y29" s="34"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="46" t="s">
+      <c r="E30" s="33"/>
+      <c r="F30" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="32"/>
+      <c r="H30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="16" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="12" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="34"/>
+      <c r="N30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="12" t="s">
+      <c r="O30" s="32"/>
+      <c r="P30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="16" t="s">
+      <c r="Q30" s="34"/>
+      <c r="R30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="12" t="s">
+      <c r="S30" s="32"/>
+      <c r="T30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="35"/>
-      <c r="V30" s="16" t="s">
+      <c r="U30" s="34"/>
+      <c r="V30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="12" t="s">
+      <c r="W30" s="35"/>
+      <c r="X30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="35"/>
+      <c r="Y30" s="34"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="79" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="56" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="56" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="56" t="s">
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="56" t="s">
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="52"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="49"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="204"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="175"/>
-      <c r="U32" s="204"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="175"/>
-      <c r="X32" s="175"/>
-      <c r="Y32" s="204"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="203"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="203"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="203"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="176" t="str">
+      <c r="B33" s="174" t="str">
         <f>IF(ISERROR(1000/B32), "", 1000/B32)</f>
         <v/>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177" t="str">
+      <c r="C33" s="175"/>
+      <c r="D33" s="175" t="str">
         <f t="shared" ref="D33" si="0">IF(ISERROR(1000/D32), "", 1000/D32)</f>
         <v/>
       </c>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179" t="str">
+      <c r="E33" s="176"/>
+      <c r="F33" s="177" t="str">
         <f t="shared" ref="F33" si="1">IF(ISERROR(1000/F32), "", 1000/F32)</f>
         <v/>
       </c>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177" t="str">
+      <c r="G33" s="175"/>
+      <c r="H33" s="175" t="str">
         <f t="shared" ref="H33" si="2">IF(ISERROR(1000/H32), "", 1000/H32)</f>
         <v/>
       </c>
-      <c r="I33" s="180"/>
-      <c r="J33" s="176" t="str">
+      <c r="I33" s="178"/>
+      <c r="J33" s="174" t="str">
         <f t="shared" ref="J33" si="3">IF(ISERROR(1000/J32), "", 1000/J32)</f>
         <v/>
       </c>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177" t="str">
+      <c r="K33" s="175"/>
+      <c r="L33" s="175" t="str">
         <f t="shared" ref="L33" si="4">IF(ISERROR(1000/L32), "", 1000/L32)</f>
         <v/>
       </c>
-      <c r="M33" s="178"/>
-      <c r="N33" s="176" t="str">
+      <c r="M33" s="176"/>
+      <c r="N33" s="174" t="str">
         <f t="shared" ref="N33" si="5">IF(ISERROR(1000/N32), "", 1000/N32)</f>
         <v/>
       </c>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177" t="str">
+      <c r="O33" s="175"/>
+      <c r="P33" s="175" t="str">
         <f t="shared" ref="P33" si="6">IF(ISERROR(1000/P32), "", 1000/P32)</f>
         <v/>
       </c>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="176" t="str">
+      <c r="Q33" s="176"/>
+      <c r="R33" s="174" t="str">
         <f t="shared" ref="R33" si="7">IF(ISERROR(1000/R32), "", 1000/R32)</f>
         <v/>
       </c>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177" t="str">
+      <c r="S33" s="175"/>
+      <c r="T33" s="175" t="str">
         <f t="shared" ref="T33" si="8">IF(ISERROR(1000/T32), "", 1000/T32)</f>
         <v/>
       </c>
-      <c r="U33" s="178"/>
-      <c r="V33" s="176" t="str">
+      <c r="U33" s="176"/>
+      <c r="V33" s="174" t="str">
         <f t="shared" ref="V33" si="9">IF(ISERROR(1000/V32), "", 1000/V32)</f>
         <v/>
       </c>
-      <c r="W33" s="177"/>
-      <c r="X33" s="177" t="str">
+      <c r="W33" s="175"/>
+      <c r="X33" s="175" t="str">
         <f t="shared" ref="X33" si="10">IF(ISERROR(1000/X32), "", 1000/X32)</f>
         <v/>
       </c>
-      <c r="Y33" s="178"/>
+      <c r="Y33" s="176"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="168" t="s">
+      <c r="B34" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="173" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="168" t="s">
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="168" t="s">
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="168" t="s">
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="168" t="s">
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="52"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="49"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="52"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="49"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="52"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="49"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="52"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="49"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="52"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="49"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="52"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="49"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="170" t="s">
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="169" t="s">
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="171" t="s">
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="169" t="s">
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="98"/>
-      <c r="T40" s="98"/>
-      <c r="U40" s="137"/>
-      <c r="V40" s="169" t="s">
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="98"/>
-      <c r="X40" s="98"/>
-      <c r="Y40" s="137"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="124"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="27">
+      <c r="B41" s="26">
         <v>34</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="28">
+      <c r="C41" s="7"/>
+      <c r="D41" s="27">
         <v>12</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="28">
+      <c r="E41" s="16"/>
+      <c r="F41" s="27">
         <v>34</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="28">
+      <c r="G41" s="7"/>
+      <c r="H41" s="27">
         <v>12</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="27">
+      <c r="I41" s="39"/>
+      <c r="J41" s="26">
         <v>34</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="28">
+      <c r="K41" s="7"/>
+      <c r="L41" s="27">
         <v>12</v>
       </c>
-      <c r="M41" s="17"/>
-      <c r="N41" s="27">
+      <c r="M41" s="16"/>
+      <c r="N41" s="26">
         <v>34</v>
       </c>
-      <c r="O41" s="8"/>
-      <c r="P41" s="28">
+      <c r="O41" s="7"/>
+      <c r="P41" s="27">
         <v>12</v>
       </c>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="27">
+      <c r="Q41" s="39"/>
+      <c r="R41" s="26">
         <v>34</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="28">
+      <c r="S41" s="7"/>
+      <c r="T41" s="27">
         <v>12</v>
       </c>
-      <c r="U41" s="17"/>
-      <c r="V41" s="27">
+      <c r="U41" s="16"/>
+      <c r="V41" s="26">
         <v>34</v>
       </c>
-      <c r="W41" s="8"/>
-      <c r="X41" s="28">
+      <c r="W41" s="7"/>
+      <c r="X41" s="27">
         <v>12</v>
       </c>
-      <c r="Y41" s="17"/>
+      <c r="Y41" s="16"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="166" t="s">
+      <c r="B42" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="167" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="166" t="s">
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="166" t="s">
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="166" t="s">
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="166" t="s">
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="69"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="66"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="47" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="29" t="s">
+      <c r="I43" s="39"/>
+      <c r="J43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="30" t="s">
+      <c r="K43" s="8"/>
+      <c r="L43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="29" t="s">
+      <c r="M43" s="16"/>
+      <c r="N43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="30" t="s">
+      <c r="O43" s="8"/>
+      <c r="P43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="29" t="s">
+      <c r="Q43" s="39"/>
+      <c r="R43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="S43" s="9"/>
-      <c r="T43" s="30" t="s">
+      <c r="S43" s="8"/>
+      <c r="T43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="17"/>
-      <c r="V43" s="29" t="s">
+      <c r="U43" s="16"/>
+      <c r="V43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="W43" s="9"/>
-      <c r="X43" s="30" t="s">
+      <c r="W43" s="8"/>
+      <c r="X43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="17"/>
+      <c r="Y43" s="16"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="165" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="164" t="s">
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="164" t="s">
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="164" t="s">
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="164" t="s">
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="69"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="66"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="47" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="30" t="s">
+      <c r="G45" s="8"/>
+      <c r="H45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="29" t="s">
+      <c r="I45" s="39"/>
+      <c r="J45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="30" t="s">
+      <c r="K45" s="8"/>
+      <c r="L45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="17"/>
-      <c r="N45" s="29" t="s">
+      <c r="M45" s="16"/>
+      <c r="N45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="30" t="s">
+      <c r="O45" s="8"/>
+      <c r="P45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="29" t="s">
+      <c r="Q45" s="39"/>
+      <c r="R45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S45" s="9"/>
-      <c r="T45" s="30" t="s">
+      <c r="S45" s="8"/>
+      <c r="T45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="17"/>
-      <c r="V45" s="29" t="s">
+      <c r="U45" s="16"/>
+      <c r="V45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="W45" s="9"/>
-      <c r="X45" s="30" t="s">
+      <c r="W45" s="8"/>
+      <c r="X45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Y45" s="17"/>
+      <c r="Y45" s="16"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="162" t="s">
+      <c r="B46" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="163" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="162" t="s">
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="162" t="s">
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="162" t="s">
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="162" t="s">
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="69"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="66"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="50" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="50" t="s">
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="50" t="s">
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="50" t="s">
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="51"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="50" t="s">
+      <c r="T47" s="48"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="52"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="49"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="154" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="154" t="s">
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="154" t="s">
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="154" t="s">
+      <c r="L48" s="48"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="154" t="s">
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="T48" s="51"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="154" t="s">
+      <c r="T48" s="48"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="52"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="49"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="152"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="49" t="s">
+      <c r="C49" s="150"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="153"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="43" t="s">
+      <c r="G49" s="151"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="152"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="31" t="s">
+      <c r="K49" s="150"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O49" s="153"/>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="43" t="s">
+      <c r="O49" s="151"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="152"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="133"/>
-      <c r="V49" s="43" t="s">
+      <c r="S49" s="150"/>
+      <c r="T49" s="107"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="152"/>
-      <c r="X49" s="112"/>
-      <c r="Y49" s="133"/>
+      <c r="W49" s="150"/>
+      <c r="X49" s="107"/>
+      <c r="Y49" s="120"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="150" t="s">
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="141"/>
-      <c r="N50" s="141"/>
-      <c r="O50" s="141"/>
-      <c r="P50" s="141"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="150" t="s">
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="139"/>
+      <c r="P50" s="139"/>
+      <c r="Q50" s="149"/>
+      <c r="R50" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="141"/>
-      <c r="T50" s="141"/>
-      <c r="U50" s="141"/>
-      <c r="V50" s="141"/>
-      <c r="W50" s="141"/>
-      <c r="X50" s="141"/>
-      <c r="Y50" s="151"/>
+      <c r="S50" s="139"/>
+      <c r="T50" s="139"/>
+      <c r="U50" s="139"/>
+      <c r="V50" s="139"/>
+      <c r="W50" s="139"/>
+      <c r="X50" s="139"/>
+      <c r="Y50" s="149"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="92" t="s">
+      <c r="C51" s="87"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="90"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="89" t="s">
+      <c r="G51" s="87"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="90"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="92" t="s">
+      <c r="K51" s="87"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="90"/>
-      <c r="P51" s="91"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="89" t="s">
+      <c r="O51" s="87"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="90"/>
-      <c r="T51" s="91"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="92" t="s">
+      <c r="S51" s="87"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="90"/>
-      <c r="X51" s="91"/>
-      <c r="Y51" s="23"/>
+      <c r="W51" s="87"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="22"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,7 +4350,7 @@
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="195">
+  <mergeCells count="197">
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="D32:E32"/>
@@ -4272,7 +4387,6 @@
     <mergeCell ref="T18:U19"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:M31"/>
@@ -4350,8 +4464,6 @@
     <mergeCell ref="H11:Y11"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="L5:Y6"/>
-    <mergeCell ref="G5:K6"/>
     <mergeCell ref="B2:F6"/>
     <mergeCell ref="G2:Y2"/>
     <mergeCell ref="G3:K3"/>
@@ -4359,10 +4471,12 @@
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:Y5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:Y6"/>
     <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="O15:R15"/>
     <mergeCell ref="S14:Y15"/>
-    <mergeCell ref="O14:R14"/>
     <mergeCell ref="B17:Y17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:L18"/>
@@ -4371,6 +4485,9 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="P15:R15"/>
     <mergeCell ref="I12:O12"/>
     <mergeCell ref="Q12:Y12"/>
     <mergeCell ref="B13:Y13"/>
@@ -4433,7 +4550,10 @@
     <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="26" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Checklist-Diluidor/modelo2.xlsx
+++ b/Checklist-Diluidor/modelo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\Login\Checklist-Diluidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF58C3-FD5C-40AC-B0D7-12D1BBA7ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC445A4-7DA1-4D1F-897A-80EDF877CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2022" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>Segmento do Cliente</t>
   </si>
   <si>
-    <t>% desconto</t>
-  </si>
-  <si>
     <t>Aprovado</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>FLUXO</t>
+  </si>
+  <si>
+    <t>Plano de Higiene</t>
+  </si>
+  <si>
+    <t>%Desconto</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
     <numFmt numFmtId="171" formatCode="&quot;1:&quot;0"/>
     <numFmt numFmtId="172" formatCode="0&quot;ml/L&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -361,8 +364,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +439,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="78">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1345,6 +1379,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1352,12 +1399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,6 +1528,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,15 +1746,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1664,6 +1755,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1685,10 +1779,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,22 +1827,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,6 +1863,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,6 +1959,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,6 +2067,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="172" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,36 +2088,26 @@
     <xf numFmtId="172" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2001,8 +2118,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2379,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:R14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2443,1836 +2560,1842 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="118"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="142"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="122" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="124"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="51"/>
+      <c r="U3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="52"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="114" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="115" t="s">
+      <c r="N4" s="238"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="96"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="124"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="65"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="63"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="128"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="149"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="137"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
+      <c r="X6" s="157"/>
+      <c r="Y6" s="158"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="85"/>
+      <c r="B7" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="104"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="179"/>
-      <c r="T8" s="180"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="180"/>
-      <c r="W8" s="180"/>
-      <c r="X8" s="180"/>
-      <c r="Y8" s="181"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="205"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="146" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="63"/>
+      <c r="B9" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="82"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="57" t="s">
+      <c r="B10" s="206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="56"/>
+      <c r="Y10" s="75"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="159"/>
+      <c r="B11" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="180"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="182"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="82" t="s">
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="66"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="104"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="112" t="s">
+      <c r="J14" s="112"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="208" t="s">
+      <c r="M14" s="67"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="206"/>
-      <c r="R14" s="207"/>
-      <c r="S14" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="216" t="s">
+      <c r="B15" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="115"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="216"/>
-      <c r="N15" s="216"/>
-      <c r="O15" s="212"/>
-      <c r="P15" s="209" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="210"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="215" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="103"/>
+      <c r="B16" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="228"/>
+      <c r="U16" s="229"/>
+      <c r="V16" s="229"/>
+      <c r="W16" s="229"/>
+      <c r="X16" s="229"/>
+      <c r="Y16" s="230"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="85"/>
+      <c r="B17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="104"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="106" t="s">
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="106" t="s">
+      <c r="O18" s="112"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="106" t="s">
+      <c r="R18" s="111"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="92"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="198" t="s">
+      <c r="U18" s="223"/>
+      <c r="V18" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="199"/>
-      <c r="V18" s="97" t="s">
+      <c r="W18" s="112"/>
+      <c r="X18" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="93"/>
-      <c r="X18" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="98"/>
+      <c r="Y18" s="117"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="90" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="107"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="90" t="s">
+      <c r="G19" s="107"/>
+      <c r="H19" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="106"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="87"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="200"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="202"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="109"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="225"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="126"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="69"/>
+      <c r="B20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="88"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="70">
+      <c r="B21" s="89">
         <v>1</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="71">
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="90">
         <v>2</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="70">
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="89">
         <v>3</v>
       </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="70">
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="89">
         <v>4</v>
       </c>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="70">
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="89">
         <v>5</v>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="70">
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="89">
         <v>6</v>
       </c>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="72"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="66"/>
+      <c r="B23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="85"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="79"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="49"/>
+      <c r="B25" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="68"/>
       <c r="Z25" s="1"/>
-      <c r="AB25" s="12"/>
+      <c r="AB25" s="11"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="186"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="185"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="189"/>
-      <c r="U26" s="190"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="189"/>
-      <c r="Y26" s="190"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="210"/>
+      <c r="P26" s="213"/>
+      <c r="Q26" s="214"/>
+      <c r="R26" s="209"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="213"/>
+      <c r="U26" s="214"/>
+      <c r="V26" s="209"/>
+      <c r="W26" s="210"/>
+      <c r="X26" s="213"/>
+      <c r="Y26" s="214"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="192"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="188"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="192"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="188"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="192"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="211"/>
+      <c r="O27" s="212"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="216"/>
+      <c r="R27" s="211"/>
+      <c r="S27" s="212"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="216"/>
+      <c r="V27" s="211"/>
+      <c r="W27" s="212"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="216"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U28" s="31"/>
-      <c r="V28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W28" s="13"/>
-      <c r="X28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y28" s="31"/>
+      <c r="B28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="12"/>
+      <c r="T28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" s="12"/>
+      <c r="X28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28" s="30"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="32"/>
-      <c r="P29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29" s="32"/>
-      <c r="T29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U29" s="34"/>
-      <c r="V29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W29" s="35"/>
-      <c r="X29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y29" s="34"/>
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="30"/>
+      <c r="N29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="31"/>
+      <c r="P29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="31"/>
+      <c r="T29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="33"/>
+      <c r="V29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29" s="34"/>
+      <c r="X29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y29" s="33"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U30" s="34"/>
-      <c r="V30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W30" s="35"/>
-      <c r="X30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y30" s="34"/>
+      <c r="B30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="31"/>
+      <c r="P30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="31"/>
+      <c r="T30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="33"/>
+      <c r="V30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" s="34"/>
+      <c r="X30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y30" s="33"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="49"/>
+      <c r="B31" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="68"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="203"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="203"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="203"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="233"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="196"/>
+      <c r="O32" s="197"/>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="231"/>
+      <c r="R32" s="196"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197"/>
+      <c r="U32" s="231"/>
+      <c r="V32" s="196"/>
+      <c r="W32" s="197"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="231"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="174" t="str">
+      <c r="B33" s="198" t="str">
         <f>IF(ISERROR(1000/B32), "", 1000/B32)</f>
         <v/>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175" t="str">
+      <c r="C33" s="199"/>
+      <c r="D33" s="199" t="str">
         <f t="shared" ref="D33" si="0">IF(ISERROR(1000/D32), "", 1000/D32)</f>
         <v/>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177" t="str">
+      <c r="E33" s="200"/>
+      <c r="F33" s="201" t="str">
         <f t="shared" ref="F33" si="1">IF(ISERROR(1000/F32), "", 1000/F32)</f>
         <v/>
       </c>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175" t="str">
+      <c r="G33" s="199"/>
+      <c r="H33" s="199" t="str">
         <f t="shared" ref="H33" si="2">IF(ISERROR(1000/H32), "", 1000/H32)</f>
         <v/>
       </c>
-      <c r="I33" s="178"/>
-      <c r="J33" s="174" t="str">
+      <c r="I33" s="202"/>
+      <c r="J33" s="198" t="str">
         <f t="shared" ref="J33" si="3">IF(ISERROR(1000/J32), "", 1000/J32)</f>
         <v/>
       </c>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175" t="str">
+      <c r="K33" s="199"/>
+      <c r="L33" s="199" t="str">
         <f t="shared" ref="L33" si="4">IF(ISERROR(1000/L32), "", 1000/L32)</f>
         <v/>
       </c>
-      <c r="M33" s="176"/>
-      <c r="N33" s="174" t="str">
+      <c r="M33" s="200"/>
+      <c r="N33" s="198" t="str">
         <f t="shared" ref="N33" si="5">IF(ISERROR(1000/N32), "", 1000/N32)</f>
         <v/>
       </c>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175" t="str">
+      <c r="O33" s="199"/>
+      <c r="P33" s="199" t="str">
         <f t="shared" ref="P33" si="6">IF(ISERROR(1000/P32), "", 1000/P32)</f>
         <v/>
       </c>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="174" t="str">
+      <c r="Q33" s="200"/>
+      <c r="R33" s="198" t="str">
         <f t="shared" ref="R33" si="7">IF(ISERROR(1000/R32), "", 1000/R32)</f>
         <v/>
       </c>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175" t="str">
+      <c r="S33" s="199"/>
+      <c r="T33" s="199" t="str">
         <f t="shared" ref="T33" si="8">IF(ISERROR(1000/T32), "", 1000/T32)</f>
         <v/>
       </c>
-      <c r="U33" s="176"/>
-      <c r="V33" s="174" t="str">
+      <c r="U33" s="200"/>
+      <c r="V33" s="198" t="str">
         <f t="shared" ref="V33" si="9">IF(ISERROR(1000/V32), "", 1000/V32)</f>
         <v/>
       </c>
-      <c r="W33" s="175"/>
-      <c r="X33" s="175" t="str">
+      <c r="W33" s="199"/>
+      <c r="X33" s="199" t="str">
         <f t="shared" ref="X33" si="10">IF(ISERROR(1000/X32), "", 1000/X32)</f>
         <v/>
       </c>
-      <c r="Y33" s="176"/>
+      <c r="Y33" s="200"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="49"/>
+      <c r="B34" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="195" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="68"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="49"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="68"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="49"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="68"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="49"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="68"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="49"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="68"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="49"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="68"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="124"/>
+      <c r="B40" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="192" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="193" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="191"/>
+      <c r="V40" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="191"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>34</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="27">
+      <c r="C41" s="6"/>
+      <c r="D41" s="26">
         <v>12</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="27">
+      <c r="E41" s="15"/>
+      <c r="F41" s="26">
         <v>34</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="27">
+      <c r="G41" s="6"/>
+      <c r="H41" s="26">
         <v>12</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="26">
+      <c r="I41" s="38"/>
+      <c r="J41" s="25">
         <v>34</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="27">
+      <c r="K41" s="6"/>
+      <c r="L41" s="26">
         <v>12</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="26">
+      <c r="M41" s="15"/>
+      <c r="N41" s="25">
         <v>34</v>
       </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="27">
+      <c r="O41" s="6"/>
+      <c r="P41" s="26">
         <v>12</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="26">
+      <c r="Q41" s="38"/>
+      <c r="R41" s="25">
         <v>34</v>
       </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="27">
+      <c r="S41" s="6"/>
+      <c r="T41" s="26">
         <v>12</v>
       </c>
-      <c r="U41" s="16"/>
-      <c r="V41" s="26">
+      <c r="U41" s="15"/>
+      <c r="V41" s="25">
         <v>34</v>
       </c>
-      <c r="W41" s="7"/>
-      <c r="X41" s="27">
+      <c r="W41" s="6"/>
+      <c r="X41" s="26">
         <v>12</v>
       </c>
-      <c r="Y41" s="16"/>
+      <c r="Y41" s="15"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="165" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="66"/>
+      <c r="B42" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="188" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="85"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="44" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="28" t="s">
+      <c r="I43" s="38"/>
+      <c r="J43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="28" t="s">
+      <c r="M43" s="15"/>
+      <c r="N43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="28" t="s">
+      <c r="Q43" s="38"/>
+      <c r="R43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="S43" s="8"/>
-      <c r="T43" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="28" t="s">
+      <c r="U43" s="15"/>
+      <c r="V43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W43" s="7"/>
+      <c r="X43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="W43" s="8"/>
-      <c r="X43" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y43" s="16"/>
+      <c r="Y43" s="15"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="163" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="66"/>
+      <c r="B44" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="186" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="85"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="44" t="s">
+      <c r="E45" s="15"/>
+      <c r="F45" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="28" t="s">
+      <c r="I45" s="38"/>
+      <c r="J45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="28" t="s">
+      <c r="M45" s="15"/>
+      <c r="N45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O45" s="8"/>
-      <c r="P45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="28" t="s">
+      <c r="Q45" s="38"/>
+      <c r="R45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S45" s="8"/>
-      <c r="T45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="16"/>
-      <c r="V45" s="28" t="s">
+      <c r="U45" s="15"/>
+      <c r="V45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y45" s="16"/>
+      <c r="Y45" s="15"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="66"/>
+      <c r="B46" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="84"/>
+      <c r="X46" s="84"/>
+      <c r="Y46" s="85"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" s="48"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="49"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="67"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="X47" s="67"/>
+      <c r="Y47" s="68"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="T48" s="48"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="49"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" s="67"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="68"/>
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="150"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K49" s="150"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O49" s="151"/>
-      <c r="P49" s="92"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="S49" s="150"/>
-      <c r="T49" s="107"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="W49" s="150"/>
-      <c r="X49" s="107"/>
-      <c r="Y49" s="120"/>
+      <c r="B49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="173"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="174"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="173"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="144"/>
+      <c r="N49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" s="174"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49" s="173"/>
+      <c r="T49" s="124"/>
+      <c r="U49" s="144"/>
+      <c r="V49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="173"/>
+      <c r="X49" s="124"/>
+      <c r="Y49" s="144"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="139"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="149"/>
-      <c r="R50" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="S50" s="139"/>
-      <c r="T50" s="139"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139"/>
-      <c r="X50" s="139"/>
-      <c r="Y50" s="149"/>
+      <c r="B50" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="172"/>
+      <c r="R50" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50" s="162"/>
+      <c r="T50" s="162"/>
+      <c r="U50" s="162"/>
+      <c r="V50" s="162"/>
+      <c r="W50" s="162"/>
+      <c r="X50" s="162"/>
+      <c r="Y50" s="172"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="87"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="86" t="s">
+      <c r="G51" s="106"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="106"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="87"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="O51" s="87"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="86" t="s">
+      <c r="O51" s="106"/>
+      <c r="P51" s="107"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="S51" s="106"/>
+      <c r="T51" s="107"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="87"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="W51" s="87"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="22"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="107"/>
+      <c r="Y51" s="21"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4350,7 +4473,7 @@
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="200">
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="D32:E32"/>
@@ -4387,6 +4510,7 @@
     <mergeCell ref="T18:U19"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="T16:Y16"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:M31"/>
@@ -4462,20 +4586,18 @@
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H11:Y11"/>
-    <mergeCell ref="O4:S4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="B2:F6"/>
     <mergeCell ref="G2:Y2"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:Y5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="L6:Y6"/>
-    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="S14:Y15"/>
     <mergeCell ref="B17:Y17"/>
     <mergeCell ref="B18:G18"/>
@@ -4512,6 +4634,10 @@
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:M25"/>
@@ -4524,6 +4650,10 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="O47:Q47"/>
     <mergeCell ref="S47:U47"/>
@@ -4544,10 +4674,6 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
